--- a/src/test/java/routerProtocol/testData/input.xlsx
+++ b/src/test/java/routerProtocol/testData/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atosh\GIT-HUB\router-protocol-karate-tests\src\test\resources\testData\pathFinder\headers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atosh\GIT-HUB\TestNet-API-Automation\src\test\java\routerProtocol\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA364751-1486-4AF5-BA85-07A12580D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD107F0B-F8A3-4026-9E64-26D6A55395E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>chain</t>
   </si>
@@ -86,118 +86,13 @@
   </si>
   <si>
     <t>0x7ceb23fd6bc0add59e62ac25578270cff1b9f619</t>
-  </si>
-  <si>
-    <t>Ethereum</t>
-  </si>
-  <si>
-    <t>0xdac17f958d2ee523a2206206994597c13d831ec7</t>
-  </si>
-  <si>
-    <t>0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
-  </si>
-  <si>
-    <t>0xC02aaA39b223FE8D0A0e5C4F27eAD9083C756Cc2</t>
-  </si>
-  <si>
-    <t>Linea</t>
-  </si>
-  <si>
-    <t>0xA219439258ca9da29E9Cc4cE5596924745e12B93</t>
-  </si>
-  <si>
-    <t>0x176211869cA2b568f2A7D4EE941E073a821EE1ff</t>
-  </si>
-  <si>
-    <t>0xe5D7C2a44FfDDf6b295A15c148167daaAf5Cf34f</t>
-  </si>
-  <si>
-    <t>Polygon zkEvm</t>
-  </si>
-  <si>
-    <t>0x1e4a5963abfd975d8c9021ce480b42188849d41d</t>
-  </si>
-  <si>
-    <t>0xA8CE8aee21bC2A48a5EF670afCc9274C7bbbC035</t>
-  </si>
-  <si>
-    <t>0x4F9A0e7FD2Bf6067db6994CF12E4495Df938E6e9</t>
-  </si>
-  <si>
-    <t>Mantle</t>
-  </si>
-  <si>
-    <t>0x201EBa5CC46D216Ce6DC03F6a759e8E766e956aE</t>
-  </si>
-  <si>
-    <t>0x09Bc4E0D864854c6aFB6eB9A9cdF58aC190D0dF9</t>
-  </si>
-  <si>
-    <t>0xdEAddEaDdeadDEadDEADDEAddEADDEAddead1111</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>0x4988a896b1227218e4A686fdE5EabdcAbd91571f</t>
-  </si>
-  <si>
-    <t>0xB12BFcA5A55806AaF64E99521918A4bf0fC40802</t>
-  </si>
-  <si>
-    <t>0xC9BdeEd33CD01541e1eeD10f90519d2C06Fe3feB</t>
-  </si>
-  <si>
-    <t>Scroll</t>
-  </si>
-  <si>
-    <t>0xf55bec9cafdbe8730f096aa55dad6d22d44099df</t>
-  </si>
-  <si>
-    <t>0x06efdbff2a14a7c8e15944d1f4a48f9f95f663a4</t>
-  </si>
-  <si>
-    <t>0x5300000000000000000000000000000000000004</t>
-  </si>
-  <si>
-    <t>Manta</t>
-  </si>
-  <si>
-    <t>0xf417F5A458eC102B90352F697D6e2Ac3A3d2851f</t>
-  </si>
-  <si>
-    <t>0xb73603C5d87fA094B7314C74ACE2e64D165016fb</t>
-  </si>
-  <si>
-    <t>0x0Dc808adcE2099A9F62AA87D9670745AbA741746</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>0xf0F161fDA2712DB8b566946122a5af183995e2eD</t>
-  </si>
-  <si>
-    <t>0xd988097fb8612cc24eeC14542bC03424c656005f</t>
-  </si>
-  <si>
-    <t>Boba ETH</t>
-  </si>
-  <si>
-    <t>0x5DE1677344D3Cb0D7D465c10b72A8f60699C062d</t>
-  </si>
-  <si>
-    <t>0x66a2A913e447d6b4BF33EFbec43aAeF87890FBbc</t>
-  </si>
-  <si>
-    <t>0xDeadDeAddeAddEAddeadDEaDDEAdDeaDDeAD0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -249,14 +144,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -330,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -350,44 +237,23 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,10 +474,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -621,7 +487,7 @@
     <col min="7" max="7" width="47.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -660,7 +526,7 @@
       <c r="D2" s="6">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="6">
@@ -673,72 +539,73 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="9">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>324</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>18</v>
       </c>
+      <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>137</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6">
@@ -748,246 +615,12 @@
         <v>21</v>
       </c>
       <c r="H5" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="11">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="11">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="9">
-        <v>59144</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1101</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="11">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="11">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1313161554</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="11">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="9">
-        <v>534352</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="11">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="9">
-        <v>169</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="11">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11">
-        <v>6</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="11">
-        <v>34443</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="17">
-        <v>6</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="17">
-        <v>6</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="11">
-        <v>288</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="11">
-        <v>6</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="11">
-        <v>6</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="11">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://arbiscan.io/token/0xaf88d065e77c8cc2239327c5edb3a432268e5831" xr:uid="{53B04D6F-33B2-4117-8C34-1C078BA2D63B}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://arbiscan.io/token/0xaf88d065e77c8cc2239327c5edb3a432268e5831" xr:uid="{CC42F083-B71D-4E99-B031-BFFE02D0793D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
